--- a/data/villrein-tamrein-bestand-areal.xlsx
+++ b/data/villrein-tamrein-bestand-areal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{382C8FB2-AD44-4AA1-8501-89C487219ADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40B7F4D-FA27-4E01-844D-C2A32313CD0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="221" firstSheet="2" activeTab="2" xr2:uid="{A05AB4A5-F042-4A3B-B327-AB3EF47021FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="221" firstSheet="3" activeTab="3" xr2:uid="{A05AB4A5-F042-4A3B-B327-AB3EF47021FE}"/>
   </bookViews>
   <sheets>
     <sheet name="bestand" sheetId="1" r:id="rId1"/>
@@ -26570,8 +26570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55DD105-3373-42D6-93FF-9D0AD167AE16}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B35"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26756,7 +26756,7 @@
         <v>1914.4749712047635</v>
       </c>
       <c r="L12" s="30">
-        <f t="shared" ref="L12:L35" si="1">$D12*J12</f>
+        <f>$D12*J12</f>
         <v>2871.7124568071454</v>
       </c>
       <c r="M12" s="30">
@@ -26764,7 +26764,7 @@
         <v>-336.50025475276288</v>
       </c>
       <c r="N12" s="100">
-        <f t="shared" ref="N12:N35" si="2">L12/L$55</f>
+        <f t="shared" ref="N12:N35" si="1">L12/L$55</f>
         <v>4.565016832817699E-2</v>
       </c>
       <c r="O12" s="56"/>
@@ -26795,22 +26795,22 @@
         <v>2000</v>
       </c>
       <c r="F13" s="99">
-        <f t="shared" ref="F13:F50" si="3">E13*D13/C13</f>
+        <f t="shared" ref="F13:F50" si="2">E13*D13/C13</f>
         <v>542.39111683922056</v>
       </c>
       <c r="G13" s="97">
-        <f t="shared" ref="G13:G35" si="4">E13/C13</f>
+        <f t="shared" ref="G13:G35" si="3">E13/C13</f>
         <v>0.82219090305934694</v>
       </c>
       <c r="H13" s="81">
         <v>437.05674599999998</v>
       </c>
       <c r="I13" s="27">
-        <f t="shared" ref="I13:I53" si="5">0.5*1.0759*EXP(-0.001*$H13)</f>
+        <f t="shared" ref="I13:I53" si="4">0.5*1.0759*EXP(-0.001*$H13)</f>
         <v>0.34748061283301646</v>
       </c>
       <c r="J13" s="68">
-        <f t="shared" ref="J13:J53" si="6">0.75*1.0759*EXP(-0.001*$H13)</f>
+        <f t="shared" ref="J13:J53" si="5">0.75*1.0759*EXP(-0.001*$H13)</f>
         <v>0.52122091924952474</v>
       </c>
       <c r="K13" s="17">
@@ -26818,7 +26818,7 @@
         <v>229.22948547981264</v>
       </c>
       <c r="L13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L12:L35" si="6">$D13*J13</f>
         <v>343.84422821971901</v>
       </c>
       <c r="M13" s="30">
@@ -26826,7 +26826,7 @@
         <v>198.54688861950154</v>
       </c>
       <c r="N13" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4659187272371144E-3</v>
       </c>
       <c r="O13" s="56"/>
@@ -26857,22 +26857,22 @@
         <v>60</v>
       </c>
       <c r="F14" s="99">
+        <f t="shared" si="2"/>
+        <v>55.341520479618616</v>
+      </c>
+      <c r="G14" s="97">
         <f t="shared" si="3"/>
-        <v>55.341520479618616</v>
-      </c>
-      <c r="G14" s="97">
-        <f t="shared" si="4"/>
         <v>9.1697146728998161E-2</v>
       </c>
       <c r="H14" s="81">
         <v>573.36805600000002</v>
       </c>
       <c r="I14" s="27">
+        <f t="shared" si="4"/>
+        <v>0.30320148849483358</v>
+      </c>
+      <c r="J14" s="68">
         <f t="shared" si="5"/>
-        <v>0.30320148849483358</v>
-      </c>
-      <c r="J14" s="68">
-        <f t="shared" si="6"/>
         <v>0.45480223274225046</v>
       </c>
       <c r="K14" s="17">
@@ -26880,7 +26880,7 @@
         <v>182.98967834384442</v>
       </c>
       <c r="L14" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>274.4845175157667</v>
       </c>
       <c r="M14" s="30">
@@ -26888,7 +26888,7 @@
         <v>-219.14299703614807</v>
       </c>
       <c r="N14" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3633422971618525E-3</v>
       </c>
       <c r="O14" s="56"/>
@@ -26919,22 +26919,22 @@
         <v>240</v>
       </c>
       <c r="F15" s="99">
+        <f t="shared" si="2"/>
+        <v>27.379614564509183</v>
+      </c>
+      <c r="G15" s="97">
         <f t="shared" si="3"/>
-        <v>27.379614564509183</v>
-      </c>
-      <c r="G15" s="97">
-        <f t="shared" si="4"/>
         <v>0.53436671509166489</v>
       </c>
       <c r="H15" s="81">
         <v>381.67135500000001</v>
       </c>
       <c r="I15" s="27">
+        <f t="shared" si="4"/>
+        <v>0.36726889512614674</v>
+      </c>
+      <c r="J15" s="68">
         <f t="shared" si="5"/>
-        <v>0.36726889512614674</v>
-      </c>
-      <c r="J15" s="68">
-        <f t="shared" si="6"/>
         <v>0.55090334268922014</v>
       </c>
       <c r="K15" s="17">
@@ -26942,7 +26942,7 @@
         <v>18.817940014025943</v>
       </c>
       <c r="L15" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28.226910021038915</v>
       </c>
       <c r="M15" s="30">
@@ -26950,7 +26950,7 @@
         <v>-0.84729545652973215</v>
       </c>
       <c r="N15" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.4870898922707431E-4</v>
       </c>
       <c r="O15" s="56"/>
@@ -26981,22 +26981,22 @@
         <v>500</v>
       </c>
       <c r="F16" s="99">
+        <f t="shared" si="2"/>
+        <v>255.26233318443244</v>
+      </c>
+      <c r="G16" s="97">
         <f t="shared" si="3"/>
-        <v>255.26233318443244</v>
-      </c>
-      <c r="G16" s="97">
-        <f t="shared" si="4"/>
         <v>1.1978804438604023</v>
       </c>
       <c r="H16" s="81">
         <v>325.63697500000001</v>
       </c>
       <c r="I16" s="27">
+        <f t="shared" si="4"/>
+        <v>0.38843608699702808</v>
+      </c>
+      <c r="J16" s="68">
         <f t="shared" si="5"/>
-        <v>0.38843608699702808</v>
-      </c>
-      <c r="J16" s="68">
-        <f t="shared" si="6"/>
         <v>0.58265413049554216</v>
       </c>
       <c r="K16" s="17">
@@ -27004,7 +27004,7 @@
         <v>82.773787958631701</v>
       </c>
       <c r="L16" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>124.16068193794756</v>
       </c>
       <c r="M16" s="30">
@@ -27012,7 +27012,7 @@
         <v>131.10165124648489</v>
       </c>
       <c r="N16" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9737199024829778E-3</v>
       </c>
       <c r="O16" s="56"/>
@@ -27043,22 +27043,22 @@
         <v>140</v>
       </c>
       <c r="F17" s="99">
+        <f t="shared" si="2"/>
+        <v>34.081936004631828</v>
+      </c>
+      <c r="G17" s="97">
         <f t="shared" si="3"/>
-        <v>34.081936004631828</v>
-      </c>
-      <c r="G17" s="97">
-        <f t="shared" si="4"/>
         <v>0.52938701467275295</v>
       </c>
       <c r="H17" s="81">
         <v>324.18023699999998</v>
       </c>
       <c r="I17" s="27">
+        <f t="shared" si="4"/>
+        <v>0.38900234895304459</v>
+      </c>
+      <c r="J17" s="68">
         <f t="shared" si="5"/>
-        <v>0.38900234895304459</v>
-      </c>
-      <c r="J17" s="68">
-        <f t="shared" si="6"/>
         <v>0.58350352342956691</v>
       </c>
       <c r="K17" s="17">
@@ -27066,7 +27066,7 @@
         <v>25.043971225597009</v>
       </c>
       <c r="L17" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>37.565956838395515</v>
       </c>
       <c r="M17" s="30">
@@ -27074,7 +27074,7 @@
         <v>-3.4840208337636867</v>
       </c>
       <c r="N17" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9716711853123855E-4</v>
       </c>
       <c r="O17" s="56"/>
@@ -27105,22 +27105,22 @@
         <v>10500</v>
       </c>
       <c r="F18" s="99">
+        <f t="shared" si="2"/>
+        <v>8867.7046533509438</v>
+      </c>
+      <c r="G18" s="97">
         <f t="shared" si="3"/>
-        <v>8867.7046533509438</v>
-      </c>
-      <c r="G18" s="97">
-        <f t="shared" si="4"/>
         <v>1.2031127105535606</v>
       </c>
       <c r="H18" s="81">
         <v>232.00149300000001</v>
       </c>
       <c r="I18" s="27">
+        <f t="shared" si="4"/>
+        <v>0.42656473017121294</v>
+      </c>
+      <c r="J18" s="68">
         <f t="shared" si="5"/>
-        <v>0.42656473017121294</v>
-      </c>
-      <c r="J18" s="68">
-        <f t="shared" si="6"/>
         <v>0.63984709525681949</v>
       </c>
       <c r="K18" s="17">
@@ -27128,7 +27128,7 @@
         <v>3144.0529299654982</v>
       </c>
       <c r="L18" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4716.0793949482477</v>
       </c>
       <c r="M18" s="30">
@@ -27136,7 +27136,7 @@
         <v>4151.6252584026961</v>
       </c>
       <c r="N18" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.4969141746106499E-2</v>
       </c>
       <c r="O18" s="56"/>
@@ -27167,22 +27167,22 @@
         <v>700</v>
       </c>
       <c r="F19" s="99">
+        <f t="shared" si="2"/>
+        <v>351.57045576727205</v>
+      </c>
+      <c r="G19" s="97">
         <f t="shared" si="3"/>
-        <v>351.57045576727205</v>
-      </c>
-      <c r="G19" s="97">
-        <f t="shared" si="4"/>
         <v>1.2021557728407319</v>
       </c>
       <c r="H19" s="81">
         <v>221.16261600000001</v>
       </c>
       <c r="I19" s="27">
+        <f t="shared" si="4"/>
+        <v>0.43121336026851292</v>
+      </c>
+      <c r="J19" s="68">
         <f t="shared" si="5"/>
-        <v>0.43121336026851292</v>
-      </c>
-      <c r="J19" s="68">
-        <f t="shared" si="6"/>
         <v>0.64682004040276941</v>
       </c>
       <c r="K19" s="17">
@@ -27190,7 +27190,7 @@
         <v>126.1083472105266</v>
       </c>
       <c r="L19" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>189.16252081578992</v>
       </c>
       <c r="M19" s="30">
@@ -27198,7 +27198,7 @@
         <v>162.40793495148213</v>
       </c>
       <c r="N19" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0070214363397915E-3</v>
       </c>
       <c r="O19" s="56"/>
@@ -27229,22 +27229,22 @@
         <v>12</v>
       </c>
       <c r="F20" s="99">
+        <f t="shared" si="2"/>
+        <v>5.2231893931234588</v>
+      </c>
+      <c r="G20" s="97">
         <f t="shared" si="3"/>
-        <v>5.2231893931234588</v>
-      </c>
-      <c r="G20" s="97">
-        <f t="shared" si="4"/>
         <v>0.13360249119128939</v>
       </c>
       <c r="H20" s="81">
         <v>859.62930500000004</v>
       </c>
       <c r="I20" s="27">
+        <f t="shared" si="4"/>
+        <v>0.22772444285075627</v>
+      </c>
+      <c r="J20" s="68">
         <f t="shared" si="5"/>
-        <v>0.22772444285075627</v>
-      </c>
-      <c r="J20" s="68">
-        <f t="shared" si="6"/>
         <v>0.34158666427613443</v>
       </c>
       <c r="K20" s="17">
@@ -27252,7 +27252,7 @@
         <v>8.9028870932503157</v>
       </c>
       <c r="L20" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13.354330639875474</v>
       </c>
       <c r="M20" s="30">
@@ -27260,7 +27260,7 @@
         <v>-8.1311412467520157</v>
       </c>
       <c r="N20" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1228707636636041E-4</v>
       </c>
       <c r="O20" s="56"/>
@@ -27291,22 +27291,22 @@
         <v>440</v>
       </c>
       <c r="F21" s="99">
+        <f t="shared" si="2"/>
+        <v>379.26039445615794</v>
+      </c>
+      <c r="G21" s="97">
         <f t="shared" si="3"/>
-        <v>379.26039445615794</v>
-      </c>
-      <c r="G21" s="97">
-        <f t="shared" si="4"/>
         <v>0.24744230899993833</v>
       </c>
       <c r="H21" s="81">
         <v>769.22404200000005</v>
       </c>
       <c r="I21" s="27">
+        <f t="shared" si="4"/>
+        <v>0.24927122907735244</v>
+      </c>
+      <c r="J21" s="68">
         <f t="shared" si="5"/>
-        <v>0.24927122907735244</v>
-      </c>
-      <c r="J21" s="68">
-        <f t="shared" si="6"/>
         <v>0.37390684361602866</v>
       </c>
       <c r="K21" s="17">
@@ -27314,7 +27314,7 @@
         <v>382.06362140951234</v>
       </c>
       <c r="L21" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>573.09543211426853</v>
       </c>
       <c r="M21" s="30">
@@ -27322,7 +27322,7 @@
         <v>-193.83503765811059</v>
       </c>
       <c r="N21" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.1102097921089437E-3</v>
       </c>
       <c r="O21" s="56"/>
@@ -27353,22 +27353,22 @@
         <v>2100</v>
       </c>
       <c r="F22" s="99">
+        <f t="shared" si="2"/>
+        <v>1862.1293330025057</v>
+      </c>
+      <c r="G22" s="97">
         <f t="shared" si="3"/>
-        <v>1862.1293330025057</v>
-      </c>
-      <c r="G22" s="97">
-        <f t="shared" si="4"/>
         <v>0.64492231096205399</v>
       </c>
       <c r="H22" s="81">
         <v>364.60710899999998</v>
       </c>
       <c r="I22" s="27">
+        <f t="shared" si="4"/>
+        <v>0.37358983959496561</v>
+      </c>
+      <c r="J22" s="68">
         <f t="shared" si="5"/>
-        <v>0.37358983959496561</v>
-      </c>
-      <c r="J22" s="68">
-        <f t="shared" si="6"/>
         <v>0.56038475939244836</v>
       </c>
       <c r="K22" s="17">
@@ -27376,7 +27376,7 @@
         <v>1078.6920951513159</v>
       </c>
       <c r="L22" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1618.0381427269735</v>
       </c>
       <c r="M22" s="30">
@@ -27384,7 +27384,7 @@
         <v>244.0911902755322</v>
       </c>
       <c r="N22" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5721138410570908E-2</v>
       </c>
       <c r="O22" s="56"/>
@@ -27415,22 +27415,22 @@
         <v>120</v>
       </c>
       <c r="F23" s="99">
+        <f t="shared" si="2"/>
+        <v>99.915236955388593</v>
+      </c>
+      <c r="G23" s="97">
         <f t="shared" si="3"/>
-        <v>99.915236955388593</v>
-      </c>
-      <c r="G23" s="97">
-        <f t="shared" si="4"/>
         <v>0.21463837543181835</v>
       </c>
       <c r="H23" s="81">
         <v>534.38448400000004</v>
       </c>
       <c r="I23" s="27">
+        <f t="shared" si="4"/>
+        <v>0.31525477928766621</v>
+      </c>
+      <c r="J23" s="68">
         <f t="shared" si="5"/>
-        <v>0.31525477928766621</v>
-      </c>
-      <c r="J23" s="68">
-        <f t="shared" si="6"/>
         <v>0.47288216893149937</v>
       </c>
       <c r="K23" s="17">
@@ -27438,7 +27438,7 @@
         <v>146.75267603230506</v>
       </c>
       <c r="L23" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>220.12901404845761</v>
       </c>
       <c r="M23" s="30">
@@ -27446,7 +27446,7 @@
         <v>-120.21377709306901</v>
       </c>
       <c r="N23" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.4992802017512646E-3</v>
       </c>
       <c r="O23" s="56"/>
@@ -27477,22 +27477,22 @@
         <v>400</v>
       </c>
       <c r="F24" s="99">
+        <f t="shared" si="2"/>
+        <v>342.52554470765375</v>
+      </c>
+      <c r="G24" s="97">
         <f t="shared" si="3"/>
-        <v>342.52554470765375</v>
-      </c>
-      <c r="G24" s="97">
-        <f t="shared" si="4"/>
         <v>0.36192662123917996</v>
       </c>
       <c r="H24" s="81">
         <v>817.85456699999997</v>
       </c>
       <c r="I24" s="27">
+        <f t="shared" si="4"/>
+        <v>0.2374390721007538</v>
+      </c>
+      <c r="J24" s="68">
         <f t="shared" si="5"/>
-        <v>0.2374390721007538</v>
-      </c>
-      <c r="J24" s="68">
-        <f t="shared" si="6"/>
         <v>0.35615860815113071</v>
       </c>
       <c r="K24" s="17">
@@ -27500,7 +27500,7 @@
         <v>224.71115064079288</v>
       </c>
       <c r="L24" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>337.06672596118932</v>
       </c>
       <c r="M24" s="30">
@@ -27508,7 +27508,7 @@
         <v>5.4588187464644307</v>
       </c>
       <c r="N24" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.3581801832150314E-3</v>
       </c>
       <c r="O24" s="56"/>
@@ -27539,22 +27539,22 @@
         <v>125</v>
       </c>
       <c r="F25" s="99">
+        <f t="shared" si="2"/>
+        <v>50.082930030705889</v>
+      </c>
+      <c r="G25" s="97">
         <f t="shared" si="3"/>
-        <v>50.082930030705889</v>
-      </c>
-      <c r="G25" s="97">
-        <f t="shared" si="4"/>
         <v>0.13887429126597775</v>
       </c>
       <c r="H25" s="81">
         <v>1064.0448160000001</v>
       </c>
       <c r="I25" s="27">
+        <f t="shared" si="4"/>
+        <v>0.18562356948328554</v>
+      </c>
+      <c r="J25" s="68">
         <f t="shared" si="5"/>
-        <v>0.18562356948328554</v>
-      </c>
-      <c r="J25" s="68">
-        <f t="shared" si="6"/>
         <v>0.27843535422492832</v>
       </c>
       <c r="K25" s="17">
@@ -27562,7 +27562,7 @@
         <v>66.942355980604674</v>
       </c>
       <c r="L25" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>100.41353397090703</v>
       </c>
       <c r="M25" s="30">
@@ -27570,7 +27570,7 @@
         <v>-50.330603940201136</v>
       </c>
       <c r="N25" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5962234371109474E-3</v>
       </c>
       <c r="O25" s="56"/>
@@ -27601,22 +27601,22 @@
         <v>100</v>
       </c>
       <c r="F26" s="99">
+        <f t="shared" si="2"/>
+        <v>71.919340574349164</v>
+      </c>
+      <c r="G26" s="97">
         <f t="shared" si="3"/>
-        <v>71.919340574349164</v>
-      </c>
-      <c r="G26" s="97">
-        <f t="shared" si="4"/>
         <v>0.1590229914912393</v>
       </c>
       <c r="H26" s="81">
         <v>1071.4572209999999</v>
       </c>
       <c r="I26" s="27">
+        <f t="shared" si="4"/>
+        <v>0.18425273925967173</v>
+      </c>
+      <c r="J26" s="68">
         <f t="shared" si="5"/>
-        <v>0.18425273925967173</v>
-      </c>
-      <c r="J26" s="68">
-        <f t="shared" si="6"/>
         <v>0.27637910888950762</v>
       </c>
       <c r="K26" s="17">
@@ -27624,7 +27624,7 @@
         <v>83.329683225730989</v>
       </c>
       <c r="L26" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>124.99452483859649</v>
       </c>
       <c r="M26" s="30">
@@ -27632,7 +27632,7 @@
         <v>-53.075184264247326</v>
       </c>
       <c r="N26" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9869750836149355E-3</v>
       </c>
       <c r="O26" s="56"/>
@@ -27663,22 +27663,22 @@
         <v>55</v>
       </c>
       <c r="F27" s="99">
+        <f t="shared" si="2"/>
+        <v>25.89416665926975</v>
+      </c>
+      <c r="G27" s="97">
         <f t="shared" si="3"/>
-        <v>25.89416665926975</v>
-      </c>
-      <c r="G27" s="97">
-        <f t="shared" si="4"/>
         <v>0.16662376795643483</v>
       </c>
       <c r="H27" s="81">
         <v>1733.076114</v>
       </c>
       <c r="I27" s="27">
+        <f t="shared" si="4"/>
+        <v>9.5077229651417364E-2</v>
+      </c>
+      <c r="J27" s="68">
         <f t="shared" si="5"/>
-        <v>9.5077229651417364E-2</v>
-      </c>
-      <c r="J27" s="68">
-        <f t="shared" si="6"/>
         <v>0.14261584447712605</v>
       </c>
       <c r="K27" s="17">
@@ -27686,7 +27686,7 @@
         <v>14.775476873978516</v>
       </c>
       <c r="L27" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22.163215310967775</v>
       </c>
       <c r="M27" s="30">
@@ -27694,7 +27694,7 @@
         <v>3.7309513483019749</v>
       </c>
       <c r="N27" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.523174847262414E-4</v>
       </c>
       <c r="O27" s="56"/>
@@ -27725,22 +27725,22 @@
         <v>2900</v>
       </c>
       <c r="F28" s="99">
+        <f t="shared" si="2"/>
+        <v>2525.8305585153162</v>
+      </c>
+      <c r="G28" s="97">
         <f t="shared" si="3"/>
-        <v>2525.8305585153162</v>
-      </c>
-      <c r="G28" s="97">
-        <f t="shared" si="4"/>
         <v>0.50103756219061257</v>
       </c>
       <c r="H28" s="81">
         <v>682.63787200000002</v>
       </c>
       <c r="I28" s="27">
+        <f t="shared" si="4"/>
+        <v>0.27181664698852726</v>
+      </c>
+      <c r="J28" s="68">
         <f t="shared" si="5"/>
-        <v>0.27181664698852726</v>
-      </c>
-      <c r="J28" s="68">
-        <f t="shared" si="6"/>
         <v>0.40772497048279088</v>
       </c>
       <c r="K28" s="17">
@@ -27748,7 +27748,7 @@
         <v>1370.2820807985636</v>
       </c>
       <c r="L28" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2055.4231211978454</v>
       </c>
       <c r="M28" s="30">
@@ -27756,7 +27756,7 @@
         <v>470.40743731747079</v>
       </c>
       <c r="N28" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2674027389438566E-2</v>
       </c>
       <c r="O28" s="56"/>
@@ -27787,22 +27787,22 @@
         <v>2700</v>
       </c>
       <c r="F29" s="99">
+        <f t="shared" si="2"/>
+        <v>2370.5556719106949</v>
+      </c>
+      <c r="G29" s="97">
         <f t="shared" si="3"/>
-        <v>2370.5556719106949</v>
-      </c>
-      <c r="G29" s="97">
-        <f t="shared" si="4"/>
         <v>0.72370120646925606</v>
       </c>
       <c r="H29" s="81">
         <v>595.942722</v>
       </c>
       <c r="I29" s="27">
+        <f t="shared" si="4"/>
+        <v>0.29643349616492948</v>
+      </c>
+      <c r="J29" s="68">
         <f t="shared" si="5"/>
-        <v>0.29643349616492948</v>
-      </c>
-      <c r="J29" s="68">
-        <f t="shared" si="6"/>
         <v>0.44465024424739424</v>
       </c>
       <c r="K29" s="17">
@@ -27810,7 +27810,7 @@
         <v>970.99756003784296</v>
       </c>
       <c r="L29" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1456.4963400567644</v>
       </c>
       <c r="M29" s="30">
@@ -27818,7 +27818,7 @@
         <v>914.05933185393042</v>
       </c>
       <c r="N29" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.3153189636155209E-2</v>
       </c>
       <c r="O29" s="56"/>
@@ -27849,22 +27849,22 @@
         <v>3500</v>
       </c>
       <c r="F30" s="99">
+        <f t="shared" si="2"/>
+        <v>1549.127801544714</v>
+      </c>
+      <c r="G30" s="97">
         <f t="shared" si="3"/>
-        <v>1549.127801544714</v>
-      </c>
-      <c r="G30" s="97">
-        <f t="shared" si="4"/>
         <v>0.72229417959802167</v>
       </c>
       <c r="H30" s="81">
         <v>248.22278600000001</v>
       </c>
       <c r="I30" s="27">
+        <f t="shared" si="4"/>
+        <v>0.41970111753683437</v>
+      </c>
+      <c r="J30" s="68">
         <f t="shared" si="5"/>
-        <v>0.41970111753683437</v>
-      </c>
-      <c r="J30" s="68">
-        <f t="shared" si="6"/>
         <v>0.62955167630525166</v>
       </c>
       <c r="K30" s="17">
@@ -27872,7 +27872,7 @@
         <v>900.1466270675686</v>
       </c>
       <c r="L30" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1350.2199406013533</v>
       </c>
       <c r="M30" s="30">
@@ -27880,7 +27880,7 @@
         <v>198.90786094336067</v>
       </c>
       <c r="N30" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1463767175716335E-2</v>
       </c>
       <c r="O30" s="56"/>
@@ -27911,22 +27911,22 @@
         <v>800</v>
       </c>
       <c r="F31" s="99">
+        <f t="shared" si="2"/>
+        <v>339.01392092706266</v>
+      </c>
+      <c r="G31" s="97">
         <f t="shared" si="3"/>
-        <v>339.01392092706266</v>
-      </c>
-      <c r="G31" s="97">
-        <f t="shared" si="4"/>
         <v>0.52811870643812997</v>
       </c>
       <c r="H31" s="81">
         <v>178.404864</v>
       </c>
       <c r="I31" s="27">
+        <f t="shared" si="4"/>
+        <v>0.45005093040589939</v>
+      </c>
+      <c r="J31" s="68">
         <f t="shared" si="5"/>
-        <v>0.45005093040589939</v>
-      </c>
-      <c r="J31" s="68">
-        <f t="shared" si="6"/>
         <v>0.67507639560884913</v>
       </c>
       <c r="K31" s="17">
@@ -27934,7 +27934,7 @@
         <v>288.900068628133</v>
       </c>
       <c r="L31" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>433.3501029421995</v>
       </c>
       <c r="M31" s="30">
@@ -27942,7 +27942,7 @@
         <v>-94.336182015136842</v>
       </c>
       <c r="N31" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.8887485923082312E-3</v>
       </c>
       <c r="O31" s="56"/>
@@ -27973,22 +27973,22 @@
         <v>300</v>
       </c>
       <c r="F32" s="99">
+        <f t="shared" si="2"/>
+        <v>205.10279556999006</v>
+      </c>
+      <c r="G32" s="97">
         <f t="shared" si="3"/>
-        <v>205.10279556999006</v>
-      </c>
-      <c r="G32" s="97">
-        <f t="shared" si="4"/>
         <v>0.86671087734788421</v>
       </c>
       <c r="H32" s="81">
         <v>130.20733100000001</v>
       </c>
       <c r="I32" s="27">
+        <f t="shared" si="4"/>
+        <v>0.47227350997330969</v>
+      </c>
+      <c r="J32" s="68">
         <f t="shared" si="5"/>
-        <v>0.47227350997330969</v>
-      </c>
-      <c r="J32" s="68">
-        <f t="shared" si="6"/>
         <v>0.70841026495996462</v>
       </c>
       <c r="K32" s="17">
@@ -27996,7 +27996,7 @@
         <v>111.76116476763387</v>
       </c>
       <c r="L32" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>167.64174715145083</v>
       </c>
       <c r="M32" s="30">
@@ -28004,7 +28004,7 @@
         <v>37.461048418539235</v>
       </c>
       <c r="N32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.6649165232935988E-3</v>
       </c>
       <c r="O32" s="56"/>
@@ -28035,22 +28035,22 @@
         <v>2000</v>
       </c>
       <c r="F33" s="99">
+        <f t="shared" si="2"/>
+        <v>1259.3128022129845</v>
+      </c>
+      <c r="G33" s="97">
         <f t="shared" si="3"/>
-        <v>1259.3128022129845</v>
-      </c>
-      <c r="G33" s="97">
-        <f t="shared" si="4"/>
         <v>0.85459701895932305</v>
       </c>
       <c r="H33" s="81">
         <v>93.15558</v>
       </c>
       <c r="I33" s="27">
+        <f t="shared" si="4"/>
+        <v>0.490100287749761</v>
+      </c>
+      <c r="J33" s="68">
         <f t="shared" si="5"/>
-        <v>0.490100287749761</v>
-      </c>
-      <c r="J33" s="68">
-        <f t="shared" si="6"/>
         <v>0.73515043162464155</v>
       </c>
       <c r="K33" s="17">
@@ -28058,7 +28058,7 @@
         <v>722.19953152085407</v>
       </c>
       <c r="L33" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1083.2992972812813</v>
       </c>
       <c r="M33" s="30">
@@ -28066,7 +28066,7 @@
         <v>176.01350493170321</v>
       </c>
       <c r="N33" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7220663981682E-2</v>
       </c>
       <c r="O33" s="56"/>
@@ -28097,22 +28097,22 @@
         <v>1500</v>
       </c>
       <c r="F34" s="99">
+        <f t="shared" si="2"/>
+        <v>1020.1238675979787</v>
+      </c>
+      <c r="G34" s="97">
         <f t="shared" si="3"/>
-        <v>1020.1238675979787</v>
-      </c>
-      <c r="G34" s="97">
-        <f t="shared" si="4"/>
         <v>0.72308312681159315</v>
       </c>
       <c r="H34" s="81">
         <v>168.539669</v>
       </c>
       <c r="I34" s="27">
+        <f t="shared" si="4"/>
+        <v>0.45451274273260334</v>
+      </c>
+      <c r="J34" s="68">
         <f t="shared" si="5"/>
-        <v>0.45451274273260334</v>
-      </c>
-      <c r="J34" s="68">
-        <f t="shared" si="6"/>
         <v>0.68176911409890506</v>
       </c>
       <c r="K34" s="17">
@@ -28120,7 +28120,7 @@
         <v>641.22544116529991</v>
       </c>
       <c r="L34" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>961.83816174794993</v>
       </c>
       <c r="M34" s="30">
@@ -28128,7 +28128,7 @@
         <v>58.285705850028762</v>
       </c>
       <c r="N34" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5289857410402619E-2</v>
       </c>
       <c r="O34" s="56"/>
@@ -28159,22 +28159,22 @@
         <v>63</v>
       </c>
       <c r="F35" s="99">
+        <f t="shared" si="2"/>
+        <v>55.330446618548663</v>
+      </c>
+      <c r="G35" s="97">
         <f t="shared" si="3"/>
-        <v>55.330446618548663</v>
-      </c>
-      <c r="G35" s="97">
-        <f t="shared" si="4"/>
         <v>0.13081566233269576</v>
       </c>
       <c r="H35" s="81">
         <v>772.27919099999997</v>
       </c>
       <c r="I35" s="27">
+        <f t="shared" si="4"/>
+        <v>0.24851083048806202</v>
+      </c>
+      <c r="J35" s="68">
         <f t="shared" si="5"/>
-        <v>0.24851083048806202</v>
-      </c>
-      <c r="J35" s="68">
-        <f t="shared" si="6"/>
         <v>0.37276624573209305</v>
       </c>
       <c r="K35" s="17">
@@ -28182,7 +28182,7 @@
         <v>105.11138341738315</v>
       </c>
       <c r="L35" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>157.66707512607474</v>
       </c>
       <c r="M35" s="30">
@@ -28190,7 +28190,7 @@
         <v>-102.33662850752607</v>
       </c>
       <c r="N35" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5063541798049879E-3</v>
       </c>
       <c r="O35" s="56"/>
@@ -28257,7 +28257,7 @@
         <v>1708</v>
       </c>
       <c r="F38" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>599.77682248268388</v>
       </c>
       <c r="G38" s="97">
@@ -28268,11 +28268,11 @@
         <v>150.14314899999999</v>
       </c>
       <c r="I38" s="27">
+        <f t="shared" si="4"/>
+        <v>0.46295158011857346</v>
+      </c>
+      <c r="J38" s="68">
         <f t="shared" si="5"/>
-        <v>0.46295158011857346</v>
-      </c>
-      <c r="J38" s="68">
-        <f t="shared" si="6"/>
         <v>0.69442737017786016</v>
       </c>
       <c r="K38" s="17">
@@ -28316,7 +28316,7 @@
         <v>2342.4</v>
       </c>
       <c r="F39" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2133.3491945680848</v>
       </c>
       <c r="G39" s="97">
@@ -28327,11 +28327,11 @@
         <v>591.047597</v>
       </c>
       <c r="I39" s="27">
+        <f t="shared" si="4"/>
+        <v>0.29788813259171765</v>
+      </c>
+      <c r="J39" s="68">
         <f t="shared" si="5"/>
-        <v>0.29788813259171765</v>
-      </c>
-      <c r="J39" s="68">
-        <f t="shared" si="6"/>
         <v>0.44683219888757647</v>
       </c>
       <c r="K39" s="17">
@@ -28375,7 +28375,7 @@
         <v>2351.4</v>
       </c>
       <c r="F40" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1809.6510560889178</v>
       </c>
       <c r="G40" s="97">
@@ -28386,11 +28386,11 @@
         <v>561.88926200000003</v>
       </c>
       <c r="I40" s="27">
+        <f t="shared" si="4"/>
+        <v>0.30670192789763512</v>
+      </c>
+      <c r="J40" s="68">
         <f t="shared" si="5"/>
-        <v>0.30670192789763512</v>
-      </c>
-      <c r="J40" s="68">
-        <f t="shared" si="6"/>
         <v>0.46005289184645271</v>
       </c>
       <c r="K40" s="17">
@@ -28434,7 +28434,7 @@
         <v>3001.2</v>
       </c>
       <c r="F41" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1746.7548265336573</v>
       </c>
       <c r="G41" s="97">
@@ -28445,11 +28445,11 @@
         <v>287.38127100000003</v>
       </c>
       <c r="I41" s="27">
+        <f t="shared" si="4"/>
+        <v>0.40358388036051829</v>
+      </c>
+      <c r="J41" s="68">
         <f t="shared" si="5"/>
-        <v>0.40358388036051829</v>
-      </c>
-      <c r="J41" s="68">
-        <f t="shared" si="6"/>
         <v>0.60537582054077754</v>
       </c>
       <c r="K41" s="17">
@@ -28493,7 +28493,7 @@
         <v>3202.4</v>
       </c>
       <c r="F42" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2348.2820144044176</v>
       </c>
       <c r="G42" s="97">
@@ -28504,11 +28504,11 @@
         <v>448.590891</v>
       </c>
       <c r="I42" s="27">
+        <f t="shared" si="4"/>
+        <v>0.34349574625201462</v>
+      </c>
+      <c r="J42" s="68">
         <f t="shared" si="5"/>
-        <v>0.34349574625201462</v>
-      </c>
-      <c r="J42" s="68">
-        <f t="shared" si="6"/>
         <v>0.51524361937802199</v>
       </c>
       <c r="K42" s="17">
@@ -28550,7 +28550,7 @@
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="97">
@@ -28561,11 +28561,11 @@
         <v>508.62377400000003</v>
       </c>
       <c r="I43" s="27">
+        <f t="shared" si="4"/>
+        <v>0.32348147404100025</v>
+      </c>
+      <c r="J43" s="68">
         <f t="shared" si="5"/>
-        <v>0.32348147404100025</v>
-      </c>
-      <c r="J43" s="68">
-        <f t="shared" si="6"/>
         <v>0.48522221106150037</v>
       </c>
       <c r="K43" s="17">
@@ -28629,7 +28629,7 @@
         <v>13643.4</v>
       </c>
       <c r="F45" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5299.0959674103233</v>
       </c>
       <c r="G45" s="97">
@@ -28640,11 +28640,11 @@
         <v>146.52738299999999</v>
       </c>
       <c r="I45" s="27">
+        <f t="shared" si="4"/>
+        <v>0.46462853461212467</v>
+      </c>
+      <c r="J45" s="68">
         <f t="shared" si="5"/>
-        <v>0.46462853461212467</v>
-      </c>
-      <c r="J45" s="68">
-        <f t="shared" si="6"/>
         <v>0.69694280191818703</v>
       </c>
       <c r="K45" s="17">
@@ -28688,7 +28688,7 @@
         <v>13933.6</v>
       </c>
       <c r="F46" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4232.9568895635566</v>
       </c>
       <c r="G46" s="97">
@@ -28699,11 +28699,11 @@
         <v>227.41330099999999</v>
       </c>
       <c r="I46" s="27">
+        <f t="shared" si="4"/>
+        <v>0.42852638784336627</v>
+      </c>
+      <c r="J46" s="68">
         <f t="shared" si="5"/>
-        <v>0.42852638784336627</v>
-      </c>
-      <c r="J46" s="68">
-        <f t="shared" si="6"/>
         <v>0.64278958176504952</v>
       </c>
       <c r="K46" s="17">
@@ -28747,7 +28747,7 @@
         <v>13944.2</v>
       </c>
       <c r="F47" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6681.5808470944357</v>
       </c>
       <c r="G47" s="97">
@@ -28758,11 +28758,11 @@
         <v>681.44013099999995</v>
       </c>
       <c r="I47" s="27">
+        <f t="shared" si="4"/>
+        <v>0.27214240798081202</v>
+      </c>
+      <c r="J47" s="68">
         <f t="shared" si="5"/>
-        <v>0.27214240798081202</v>
-      </c>
-      <c r="J47" s="68">
-        <f t="shared" si="6"/>
         <v>0.40821361197121803</v>
       </c>
       <c r="K47" s="17">
@@ -28806,7 +28806,7 @@
         <v>11999.2</v>
       </c>
       <c r="F48" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6034.2195060376534</v>
       </c>
       <c r="G48" s="97">
@@ -28817,11 +28817,11 @@
         <v>1038.107753</v>
       </c>
       <c r="I48" s="27">
+        <f t="shared" si="4"/>
+        <v>0.19050108041870123</v>
+      </c>
+      <c r="J48" s="68">
         <f t="shared" si="5"/>
-        <v>0.19050108041870123</v>
-      </c>
-      <c r="J48" s="68">
-        <f t="shared" si="6"/>
         <v>0.28575162062805187</v>
       </c>
       <c r="K48" s="17">
@@ -28865,7 +28865,7 @@
         <v>78794.600000000006</v>
       </c>
       <c r="F49" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45841.013157820911</v>
       </c>
       <c r="G49" s="97">
@@ -28876,11 +28876,11 @@
         <v>421.68258300000002</v>
       </c>
       <c r="I49" s="27">
+        <f t="shared" si="4"/>
+        <v>0.35286411378583182</v>
+      </c>
+      <c r="J49" s="68">
         <f t="shared" si="5"/>
-        <v>0.35286411378583182</v>
-      </c>
-      <c r="J49" s="68">
-        <f t="shared" si="6"/>
         <v>0.52929617067874779</v>
       </c>
       <c r="K49" s="17">
@@ -28924,7 +28924,7 @@
         <v>68561.8</v>
       </c>
       <c r="F50" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40787.589610524796</v>
       </c>
       <c r="G50" s="97">
@@ -28935,11 +28935,11 @@
         <v>140.20102199999999</v>
       </c>
       <c r="I50" s="27">
+        <f t="shared" si="4"/>
+        <v>0.46757725996883892</v>
+      </c>
+      <c r="J50" s="68">
         <f t="shared" si="5"/>
-        <v>0.46757725996883892</v>
-      </c>
-      <c r="J50" s="68">
-        <f t="shared" si="6"/>
         <v>0.70136588995325844</v>
       </c>
       <c r="K50" s="17">
@@ -29004,11 +29004,11 @@
         <v>964.12917900000002</v>
       </c>
       <c r="I52" s="27">
+        <f t="shared" si="4"/>
+        <v>0.20512846471967025</v>
+      </c>
+      <c r="J52" s="68">
         <f t="shared" si="5"/>
-        <v>0.20512846471967025</v>
-      </c>
-      <c r="J52" s="68">
-        <f t="shared" si="6"/>
         <v>0.30769269707950536</v>
       </c>
       <c r="K52" s="17">
@@ -29053,11 +29053,11 @@
         <v>1923.412243</v>
       </c>
       <c r="I53" s="27">
+        <f t="shared" si="4"/>
+        <v>7.8598559794328698E-2</v>
+      </c>
+      <c r="J53" s="68">
         <f t="shared" si="5"/>
-        <v>7.8598559794328698E-2</v>
-      </c>
-      <c r="J53" s="68">
-        <f t="shared" si="6"/>
         <v>0.11789783969149306</v>
       </c>
       <c r="K53" s="17">
@@ -29246,7 +29246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8BD4B7-D967-47B8-8A9D-DA11DC3232A7}">
   <dimension ref="B6:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
